--- a/2023/01-brumov/01-VKCT2023-Brumov.xlsx
+++ b/2023/01-brumov/01-VKCT2023-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -511,10 +511,10 @@
     <t xml:space="preserve">Müllerová Valerie</t>
   </si>
   <si>
-    <t xml:space="preserve">Moravciková Alžběta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moravciková Kateřina</t>
+    <t xml:space="preserve">Moravčíková Alžběta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moravčíková Kateřina</t>
   </si>
   <si>
     <t xml:space="preserve">Starší žačky (2009-2010)</t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Vráželová Šárka</t>
   </si>
   <si>
-    <t xml:space="preserve">Chuchmová Justína</t>
+    <t xml:space="preserve">Chuchmová Justýna</t>
   </si>
   <si>
     <t xml:space="preserve">Mladší žáci (2011-2012)</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">mtbiker.cz</t>
   </si>
   <si>
-    <t xml:space="preserve">Chudáková Aneta</t>
+    <t xml:space="preserve">Chudárková Aneta</t>
   </si>
   <si>
     <t xml:space="preserve">Ghost team</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">Holznerová Petra</t>
   </si>
   <si>
-    <t xml:space="preserve">Fojtikova Staňka</t>
+    <t xml:space="preserve">Fojtíková Stanislava</t>
   </si>
   <si>
     <t xml:space="preserve">Navojná</t>
@@ -3161,8 +3161,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7585,7 +7585,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9020,8 +9020,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12199,7 +12199,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23971,7 +23971,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27241,7 +27241,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28654,7 +28654,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/2023/01-brumov/01-VKCT2023-Brumov.xlsx
+++ b/2023/01-brumov/01-VKCT2023-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="395">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -9020,7 +9020,7 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -13907,7 +13907,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16946,10 +16946,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18337,18 +18337,20 @@
         <v>258</v>
       </c>
       <c r="B47" s="10" t="n">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>1971</v>
-      </c>
-      <c r="F47" s="10"/>
+        <v>1980</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="G47" s="11"/>
       <c r="H47" s="9"/>
       <c r="I47" s="12" t="s">
@@ -18359,27 +18361,27 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="B48" s="10" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="9"/>
       <c r="I48" s="12" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="10"/>
@@ -18389,19 +18391,19 @@
         <v>38</v>
       </c>
       <c r="B49" s="10" t="n">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>170</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="9"/>
@@ -18416,19 +18418,19 @@
         <v>38</v>
       </c>
       <c r="B50" s="10" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="E50" s="10" t="n">
-        <v>1986</v>
+        <v>1970</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
@@ -18443,19 +18445,19 @@
         <v>38</v>
       </c>
       <c r="B51" s="10" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="10" t="n">
-        <v>1970</v>
+        <v>1996</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="9"/>
@@ -18470,19 +18472,19 @@
         <v>38</v>
       </c>
       <c r="B52" s="10" t="n">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="10" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="9"/>
@@ -18493,29 +18495,15 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="10" t="n">
-        <v>203</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="10" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>394</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="11"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="10"/>
     </row>
@@ -18676,7 +18664,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -18962,17 +18950,17 @@
       <c r="K87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="10"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14"/>
@@ -19117,19 +19105,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="14"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="14"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.315277777777778" right="0.315277777777778" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
